--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Buza Benjámin - jelenléti ív gyakornoki programban</t>
   </si>
@@ -38,6 +38,27 @@
   </si>
   <si>
     <t>15:00:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
   </si>
 </sst>
 </file>
@@ -187,7 +208,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3">
-        <f>=C3-B3</f>
+        <f>=C4-B4</f>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -200,10 +221,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
-        <f>=C4-B4</f>
+        <f>=C5-B5</f>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -243,13 +264,13 @@
         <v>45237.95833333</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
-        <f>=C8-B8</f>
+        <f>=C9-B9</f>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -335,7 +356,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="3">
-        <f>=C16-B16</f>
+        <f>=C17-B17</f>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -348,10 +369,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3">
-        <f>=C17-B17</f>
+        <f>=C18-B18</f>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -361,13 +382,13 @@
         <v>45247.95833333</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3">
-        <f>=C18-B18</f>
+        <f>=C19-B19</f>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -403,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="3">
-        <f>=C21-B21</f>
+        <f>=C22-B22</f>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -416,10 +437,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3">
-        <f>=C22-B22</f>
+        <f>=C23-B23</f>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -435,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="3">
-        <f>=C23-B23</f>
+        <f>=C24-B24</f>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -458,10 +479,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3">
-        <f>=C25-B25</f>
+        <f>=C26-B26</f>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -504,10 +525,10 @@
         <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D30" s="3">
-        <f>=C29-B29</f>
+        <f>=C30-B30</f>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
